--- a/storage/LeaderBoardTemplate2.xlsx
+++ b/storage/LeaderBoardTemplate2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -37,6 +37,15 @@
     <t xml:space="preserve">Phone</t>
   </si>
   <si>
+    <t xml:space="preserve">product_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">period_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">period_to</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sample Title</t>
   </si>
   <si>
@@ -44,6 +53,15 @@
   </si>
   <si>
     <t xml:space="preserve">09795832170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-01-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-03-2024</t>
   </si>
   <si>
     <t xml:space="preserve">Hin Lai Yee</t>
@@ -65,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -87,6 +105,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,8 +155,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -153,10 +185,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -164,9 +196,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -182,56 +217,92 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>125489</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>115268</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>90000</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
